--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E4F788-19C3-4C44-A201-B06894DE7BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC04CA7-8B9F-184B-8399-A4F81BDEC9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Classificazione</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>dati dalla media di 5 test per rete</t>
+  </si>
+  <si>
+    <t>ResNet50</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,15 +750,15 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="18"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -764,15 +767,33 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="24" t="s">
@@ -785,15 +806,27 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="20">
+        <v>64</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="18"/>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="s">
@@ -806,15 +839,6 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="s">

--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC04CA7-8B9F-184B-8399-A4F81BDEC9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7BE90-0F59-B144-B302-91449A228EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Classificazione</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>ResNet50</t>
+  </si>
+  <si>
+    <t>ResNet18</t>
+  </si>
+  <si>
+    <t>ResNet101</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,9 +830,15 @@
       <c r="F8" s="20">
         <v>5</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="22">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.96279999999999999</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="20"/>
       <c r="L8" s="24" t="s">
@@ -839,6 +851,15 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="s">
@@ -851,15 +872,33 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="20"/>
       <c r="L10" s="18"/>
@@ -868,15 +907,33 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20">
+        <v>20</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E11" s="20">
+        <v>64</v>
+      </c>
+      <c r="F11" s="20">
+        <v>5</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.96879999999999999</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="20"/>
       <c r="L11" s="26" t="s">
@@ -887,15 +944,15 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="28" t="s">
@@ -906,28 +963,64 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="20">
+        <v>20</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E14" s="20">
+        <v>64</v>
+      </c>
+      <c r="F14" s="20">
+        <v>5</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.96889999999999998</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
     </row>

--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7BE90-0F59-B144-B302-91449A228EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7585FB-DB6E-FB4E-B45C-775CBA1FABF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
   <si>
     <t>Classificazione</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>ResNet101</t>
+  </si>
+  <si>
+    <t>GoogLeNet</t>
+  </si>
+  <si>
+    <t>ShuffleNet</t>
+  </si>
+  <si>
+    <t>SqueezeNet</t>
+  </si>
+  <si>
+    <t>MobileNetV2</t>
+  </si>
+  <si>
+    <t>InceptionV3</t>
+  </si>
+  <si>
+    <t>Risultati davvero bassi con tempi di lavoro molto lunghi</t>
+  </si>
+  <si>
+    <t>VGG16</t>
   </si>
 </sst>
 </file>
@@ -597,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966282BA-1F9E-5348-BB55-D0E2FD507CE7}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,14 +778,14 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="18"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -852,14 +873,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24" t="s">
@@ -945,14 +966,14 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="28" t="s">
@@ -1025,48 +1046,426 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="20">
+        <v>20</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E17" s="20">
+        <v>64</v>
+      </c>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.9466</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.92220000000000002</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="20">
+        <v>20</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E20" s="20">
+        <v>64</v>
+      </c>
+      <c r="F20" s="20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.91659999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="20">
+        <v>40</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E23" s="20">
+        <v>16</v>
+      </c>
+      <c r="F23" s="20">
+        <v>5</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="I23" s="23">
+        <v>0.92769999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="20">
+        <v>20</v>
+      </c>
+      <c r="D26" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E26" s="20">
+        <v>64</v>
+      </c>
+      <c r="F26" s="20">
+        <v>5</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="20">
+        <v>20</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E29" s="20">
+        <v>64</v>
+      </c>
+      <c r="F29" s="20">
+        <v>5</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="I29" s="23">
+        <v>0.96220000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="20">
+        <v>40</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E32" s="20">
+        <v>64</v>
+      </c>
+      <c r="F32" s="20">
+        <v>5</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7585FB-DB6E-FB4E-B45C-775CBA1FABF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78264B5-73B9-7146-9A4A-A22420D5859D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
   <si>
     <t>Classificazione</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>InceptionV3</t>
-  </si>
-  <si>
-    <t>Risultati davvero bassi con tempi di lavoro molto lunghi</t>
   </si>
   <si>
     <t>VGG16</t>
@@ -618,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966282BA-1F9E-5348-BB55-D0E2FD507CE7}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,9 +1298,6 @@
       <c r="I25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -1313,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D26" s="21">
         <v>1E-4</v>
@@ -1324,9 +1318,15 @@
       <c r="F26" s="20">
         <v>5</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="G26" s="22">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="I26" s="23">
+        <v>0.97330000000000005</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>14</v>
@@ -1464,6 +1464,202 @@
       </c>
       <c r="I32" s="23">
         <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="20">
+        <v>80</v>
+      </c>
+      <c r="D41" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E41" s="20">
+        <v>64</v>
+      </c>
+      <c r="F41" s="20">
+        <v>5</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="H41" s="23">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="I41" s="23">
+        <v>0.94330000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="20">
+        <v>100</v>
+      </c>
+      <c r="D44" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E44" s="20">
+        <v>64</v>
+      </c>
+      <c r="F44" s="20">
+        <v>5</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="H44" s="23">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="20">
+        <v>100</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E47" s="20">
+        <v>64</v>
+      </c>
+      <c r="F47" s="20">
+        <v>5</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H47" s="23">
+        <v>0.9788</v>
+      </c>
+      <c r="I47" s="23">
+        <v>0.96989999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78264B5-73B9-7146-9A4A-A22420D5859D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88BC2D5-D491-D146-A726-0C9F76FB8DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
   <si>
     <t>Classificazione</t>
   </si>
@@ -615,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966282BA-1F9E-5348-BB55-D0E2FD507CE7}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,6 +1662,69 @@
         <v>0.96989999999999998</v>
       </c>
     </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="20">
+        <v>100</v>
+      </c>
+      <c r="D50" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="E50" s="20">
+        <v>64</v>
+      </c>
+      <c r="F50" s="20">
+        <v>5</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88BC2D5-D491-D146-A726-0C9F76FB8DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B9C41-FC47-1E4A-9764-19BA563EE777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966282BA-1F9E-5348-BB55-D0E2FD507CE7}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1721,9 +1721,15 @@
       <c r="F50" s="20">
         <v>5</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="G50" s="22">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="H50" s="23">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="I50" s="23">
+        <v>0.88329999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B9C41-FC47-1E4A-9764-19BA563EE777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B3E90-86E5-3C43-8783-40ED8D66FB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="50">
   <si>
     <t>Classificazione</t>
   </si>
@@ -126,13 +126,70 @@
   </si>
   <si>
     <t>VGG16</t>
+  </si>
+  <si>
+    <t>Nuovi test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo </t>
+  </si>
+  <si>
+    <t>22min</t>
+  </si>
+  <si>
+    <t>Deviazione standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembra che Alexnet peggiori </t>
+  </si>
+  <si>
+    <t>77min</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Resnet18 peggiora leggermente</t>
+  </si>
+  <si>
+    <t>118min</t>
+  </si>
+  <si>
+    <t>Peggiora leggermente</t>
+  </si>
+  <si>
+    <t>32min</t>
+  </si>
+  <si>
+    <t>24min</t>
+  </si>
+  <si>
+    <t>Sembrerebbe la più efficiente nel minor tempo</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>peggiora</t>
+  </si>
+  <si>
+    <t>55min</t>
+  </si>
+  <si>
+    <t>103min</t>
+  </si>
+  <si>
+    <t>160min</t>
+  </si>
+  <si>
+    <t>Sicuramente la rete peggiore, molto tempo per addestrarla, deviazione standard grande e la precisione scende</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +246,29 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Apple Braille Outline 8 Dot"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Apple Braille Outline 8 Dot"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -271,12 +351,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -301,6 +380,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -615,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966282BA-1F9E-5348-BB55-D0E2FD507CE7}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,1112 +713,2019 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="19">
+      <c r="N4" s="18">
         <v>215</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>20</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>64</v>
       </c>
-      <c r="F5" s="20">
-        <v>5</v>
-      </c>
-      <c r="G5" s="22">
+      <c r="F5" s="19">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21">
         <v>0.9516</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>0.96060000000000001</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>0.9506</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="12" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="18">
         <v>6</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="24" t="s">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="25">
+      <c r="N7" s="24">
         <v>0.8</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>20</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>64</v>
       </c>
-      <c r="F8" s="20">
-        <v>5</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="F8" s="19">
+        <v>5</v>
+      </c>
+      <c r="G8" s="21">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>0.97219999999999995</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>0.96279999999999999</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="24" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="19">
+        <v>3.25</v>
+      </c>
+      <c r="M8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N8" s="24">
         <v>0.1</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="24" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="M9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="25">
+      <c r="N9" s="24">
         <v>0.1</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>20</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>64</v>
       </c>
-      <c r="F11" s="20">
-        <v>5</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="21">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>0.97660000000000002</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>0.96879999999999999</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="26" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="19">
+        <v>3.25</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="6"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="28" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="6"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>20</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>64</v>
       </c>
-      <c r="F14" s="20">
-        <v>5</v>
-      </c>
-      <c r="G14" s="22">
+      <c r="F14" s="19">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>0.96819999999999995</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>0.96889999999999998</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="19">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>20</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>64</v>
       </c>
-      <c r="F17" s="20">
-        <v>5</v>
-      </c>
-      <c r="G17" s="22">
+      <c r="F17" s="19">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21">
         <v>0.92169999999999996</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>0.9466</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>0.92220000000000002</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="19">
+        <v>3.25</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>20</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>64</v>
       </c>
-      <c r="F20" s="20">
-        <v>5</v>
-      </c>
-      <c r="G20" s="22">
+      <c r="F20" s="19">
+        <v>5</v>
+      </c>
+      <c r="G20" s="21">
         <v>0.91300000000000003</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>0.91549999999999998</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>0.91659999999999997</v>
       </c>
+      <c r="K20">
+        <v>3.89</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>40</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>16</v>
       </c>
-      <c r="F23" s="20">
-        <v>5</v>
-      </c>
-      <c r="G23" s="22">
+      <c r="F23" s="19">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21">
         <v>0.92179999999999995</v>
       </c>
-      <c r="H23" s="23">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="I23" s="23">
+      <c r="H23" s="22">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="I23" s="22">
         <v>0.92769999999999997</v>
       </c>
+      <c r="K23">
+        <v>5.07</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>40</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>64</v>
       </c>
-      <c r="F26" s="20">
-        <v>5</v>
-      </c>
-      <c r="G26" s="22">
+      <c r="F26" s="19">
+        <v>5</v>
+      </c>
+      <c r="G26" s="21">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>0.98080000000000001</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>0.97330000000000005</v>
       </c>
+      <c r="K26">
+        <v>5.07</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>20</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>64</v>
       </c>
-      <c r="F29" s="20">
-        <v>5</v>
-      </c>
-      <c r="G29" s="22">
+      <c r="F29" s="19">
+        <v>5</v>
+      </c>
+      <c r="G29" s="21">
         <v>0.95650000000000002</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>0.97260000000000002</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>0.96220000000000006</v>
       </c>
+      <c r="K29">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>40</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>64</v>
       </c>
-      <c r="F32" s="20">
-        <v>5</v>
-      </c>
-      <c r="G32" s="22">
+      <c r="F32" s="19">
+        <v>5</v>
+      </c>
+      <c r="G32" s="21">
         <v>0.92479999999999996</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>0.94830000000000003</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>0.93400000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="K32">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I35" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C36" s="19">
         <v>80</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D36" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E36" s="19">
         <v>64</v>
       </c>
-      <c r="F41" s="20">
-        <v>5</v>
-      </c>
-      <c r="G41" s="22">
+      <c r="F36" s="19">
+        <v>5</v>
+      </c>
+      <c r="G36" s="21">
         <v>0.94779999999999998</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H36" s="22">
         <v>0.95479999999999998</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I36" s="22">
         <v>0.94330000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H38" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I38" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C39" s="19">
         <v>100</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D39" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E39" s="19">
         <v>64</v>
       </c>
-      <c r="F44" s="20">
-        <v>5</v>
-      </c>
-      <c r="G44" s="22">
+      <c r="F39" s="19">
+        <v>5</v>
+      </c>
+      <c r="G39" s="21">
         <v>0.97389999999999999</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H39" s="22">
         <v>0.98209999999999997</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I39" s="22">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="C41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I41" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C42" s="19">
         <v>100</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D42" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E42" s="19">
         <v>64</v>
       </c>
-      <c r="F47" s="20">
-        <v>5</v>
-      </c>
-      <c r="G47" s="22">
+      <c r="F42" s="19">
+        <v>5</v>
+      </c>
+      <c r="G42" s="21">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H42" s="22">
         <v>0.9788</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I42" s="22">
         <v>0.96989999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="15" t="s">
+      <c r="C44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H44" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="I44" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C45" s="19">
         <v>100</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D45" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E45" s="19">
         <v>64</v>
       </c>
-      <c r="F50" s="20">
-        <v>5</v>
-      </c>
-      <c r="G50" s="22">
+      <c r="F45" s="19">
+        <v>5</v>
+      </c>
+      <c r="G45" s="21">
         <v>0.86950000000000005</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H45" s="22">
         <v>0.88870000000000005</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I45" s="22">
         <v>0.88329999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="19">
+        <v>100</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E50" s="19">
+        <v>16</v>
+      </c>
+      <c r="F50" s="19">
+        <v>5</v>
+      </c>
+      <c r="G50" s="21">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="I50" s="22">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="19">
+        <v>5.21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="19">
+        <v>100</v>
+      </c>
+      <c r="D53" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E53" s="19">
+        <v>16</v>
+      </c>
+      <c r="F53" s="19">
+        <v>5</v>
+      </c>
+      <c r="G53" s="21">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="I53" s="22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="19">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="30">
+        <v>100</v>
+      </c>
+      <c r="D56" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E56" s="30">
+        <v>16</v>
+      </c>
+      <c r="F56" s="30">
+        <v>5</v>
+      </c>
+      <c r="G56" s="32">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="H56" s="33">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="I56" s="33">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="29">
+        <v>3.89</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="30">
+        <v>100</v>
+      </c>
+      <c r="D59" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E59" s="30">
+        <v>16</v>
+      </c>
+      <c r="F59" s="30">
+        <v>5</v>
+      </c>
+      <c r="G59" s="35">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="H59" s="31">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="I59" s="31">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="J59" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59">
+        <v>4.26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="19">
+        <v>100</v>
+      </c>
+      <c r="D62" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E62" s="19">
+        <v>16</v>
+      </c>
+      <c r="F62" s="19">
+        <v>5</v>
+      </c>
+      <c r="G62" s="21">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="H62" s="22">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="I62" s="22">
+        <v>0.9738</v>
+      </c>
+      <c r="J62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="19">
+        <v>100</v>
+      </c>
+      <c r="D65" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E65" s="19">
+        <v>16</v>
+      </c>
+      <c r="F65" s="19">
+        <v>5</v>
+      </c>
+      <c r="G65" s="21">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="H65" s="22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="I65" s="22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J65" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65">
+        <v>1.73</v>
+      </c>
+      <c r="L65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="19">
+        <v>100</v>
+      </c>
+      <c r="D68" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E68" s="19">
+        <v>16</v>
+      </c>
+      <c r="F68" s="19">
+        <v>5</v>
+      </c>
+      <c r="G68" s="21">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="H68" s="22">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="I68" s="22">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="J68" t="s">
+        <v>44</v>
+      </c>
+      <c r="K68">
+        <v>3.47</v>
+      </c>
+      <c r="L68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="19">
+        <v>100</v>
+      </c>
+      <c r="D71" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E71" s="19">
+        <v>16</v>
+      </c>
+      <c r="F71" s="19">
+        <v>5</v>
+      </c>
+      <c r="G71" s="21">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="H71" s="22">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="I71" s="22">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="J71" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="19">
+        <v>100</v>
+      </c>
+      <c r="D74" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E74" s="19">
+        <v>16</v>
+      </c>
+      <c r="F74" s="19">
+        <v>5</v>
+      </c>
+      <c r="G74" s="21">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H74" s="22">
+        <v>0.9738</v>
+      </c>
+      <c r="I74" s="22">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="J74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="19">
+        <v>100</v>
+      </c>
+      <c r="D77" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="E77" s="19">
+        <v>16</v>
+      </c>
+      <c r="F77" s="19">
+        <v>5</v>
+      </c>
+      <c r="G77" s="21">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+      <c r="K77">
+        <v>5.21</v>
+      </c>
+      <c r="L77" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Analisi sintetica dei dati.xlsx
+++ b/Analisi sintetica dei dati.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroloddo/Documents/MATLAB/SeedClasification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B3E90-86E5-3C43-8783-40ED8D66FB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A2634-B84C-6B4F-9A89-C60687D506C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{E3CBB1D1-38F6-D048-9B05-7C344C0DC1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -189,25 +189,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="American Typewriter"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="American Typewriter"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -250,25 +238,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Apple Braille Outline 8 Dot"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -351,43 +321,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -702,2027 +666,1988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966282BA-1F9E-5348-BB55-D0E2FD507CE7}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="M3" s="11" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="15">
         <v>215</v>
       </c>
-      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>20</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>64</v>
       </c>
-      <c r="F5" s="19">
-        <v>5</v>
-      </c>
-      <c r="G5" s="21">
+      <c r="F5" s="16">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18">
         <v>0.9516</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>0.96060000000000001</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <v>0.9506</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="19">
+      <c r="J5" s="14"/>
+      <c r="K5" s="16">
         <v>3.17</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="15">
         <v>6</v>
       </c>
-      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="21">
         <v>0.8</v>
       </c>
-      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>20</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>64</v>
       </c>
-      <c r="F8" s="19">
-        <v>5</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="16">
+        <v>5</v>
+      </c>
+      <c r="G8" s="18">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>0.97219999999999995</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>0.96279999999999999</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="19">
+      <c r="J8" s="14"/>
+      <c r="K8" s="16">
         <v>3.25</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="21">
         <v>0.1</v>
       </c>
-      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="M9" s="23" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="21">
         <v>0.1</v>
       </c>
-      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="5"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>20</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>64</v>
       </c>
-      <c r="F11" s="19">
-        <v>5</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
+      <c r="G11" s="18">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <v>0.97660000000000002</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>0.96879999999999999</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="19">
+      <c r="J11" s="14"/>
+      <c r="K11" s="16">
         <v>3.25</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="27" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>20</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>64</v>
       </c>
-      <c r="F14" s="19">
-        <v>5</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="F14" s="16">
+        <v>5</v>
+      </c>
+      <c r="G14" s="18">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>0.96819999999999995</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>0.96889999999999998</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="19">
+      <c r="J14" s="14"/>
+      <c r="K14" s="16">
         <v>3.25</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <v>20</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>64</v>
       </c>
-      <c r="F17" s="19">
-        <v>5</v>
-      </c>
-      <c r="G17" s="21">
+      <c r="F17" s="16">
+        <v>5</v>
+      </c>
+      <c r="G17" s="18">
         <v>0.92169999999999996</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="19">
         <v>0.9466</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>0.92220000000000002</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="19">
+      <c r="K17" s="16">
         <v>3.25</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="16">
         <v>20</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <v>64</v>
       </c>
-      <c r="F20" s="19">
-        <v>5</v>
-      </c>
-      <c r="G20" s="21">
+      <c r="F20" s="16">
+        <v>5</v>
+      </c>
+      <c r="G20" s="18">
         <v>0.91300000000000003</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="19">
         <v>0.91549999999999998</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>0.91659999999999997</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>3.89</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="16">
         <v>40</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>16</v>
       </c>
-      <c r="F23" s="19">
-        <v>5</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="F23" s="16">
+        <v>5</v>
+      </c>
+      <c r="G23" s="18">
         <v>0.92179999999999995</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="19">
         <v>0.94479999999999997</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>0.92769999999999997</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>5.07</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28" t="s">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="16">
         <v>40</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>64</v>
       </c>
-      <c r="F26" s="19">
-        <v>5</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="F26" s="16">
+        <v>5</v>
+      </c>
+      <c r="G26" s="18">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="19">
         <v>0.98080000000000001</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <v>0.97330000000000005</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>5.07</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="16">
         <v>20</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="16">
         <v>64</v>
       </c>
-      <c r="F29" s="19">
-        <v>5</v>
-      </c>
-      <c r="G29" s="21">
+      <c r="F29" s="16">
+        <v>5</v>
+      </c>
+      <c r="G29" s="18">
         <v>0.95650000000000002</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="19">
         <v>0.97260000000000002</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="19">
         <v>0.96220000000000006</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>3.36</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28" t="s">
+      <c r="J31" s="25"/>
+      <c r="K31" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="16">
         <v>40</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="16">
         <v>64</v>
       </c>
-      <c r="F32" s="19">
-        <v>5</v>
-      </c>
-      <c r="G32" s="21">
+      <c r="F32" s="16">
+        <v>5</v>
+      </c>
+      <c r="G32" s="18">
         <v>0.92479999999999996</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="19">
         <v>0.94830000000000003</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="19">
         <v>0.93400000000000005</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>4.55</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="16">
         <v>80</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="16">
         <v>64</v>
       </c>
-      <c r="F36" s="19">
-        <v>5</v>
-      </c>
-      <c r="G36" s="21">
+      <c r="F36" s="16">
+        <v>5</v>
+      </c>
+      <c r="G36" s="18">
         <v>0.94779999999999998</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="19">
         <v>0.95479999999999998</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="19">
         <v>0.94330000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="16">
         <v>100</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="16">
         <v>64</v>
       </c>
-      <c r="F39" s="19">
-        <v>5</v>
-      </c>
-      <c r="G39" s="21">
+      <c r="F39" s="16">
+        <v>5</v>
+      </c>
+      <c r="G39" s="18">
         <v>0.97389999999999999</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="19">
         <v>0.98209999999999997</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="19">
         <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="16">
         <v>100</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="16">
         <v>64</v>
       </c>
-      <c r="F42" s="19">
-        <v>5</v>
-      </c>
-      <c r="G42" s="21">
+      <c r="F42" s="16">
+        <v>5</v>
+      </c>
+      <c r="G42" s="18">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="19">
         <v>0.9788</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="19">
         <v>0.96989999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="16">
         <v>100</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="16">
         <v>64</v>
       </c>
-      <c r="F45" s="19">
-        <v>5</v>
-      </c>
-      <c r="G45" s="21">
+      <c r="F45" s="16">
+        <v>5</v>
+      </c>
+      <c r="G45" s="18">
         <v>0.86950000000000005</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="19">
         <v>0.88870000000000005</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="19">
         <v>0.88329999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="C49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="28" t="s">
+      <c r="J49" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="16">
         <v>100</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="16">
         <v>16</v>
       </c>
-      <c r="F50" s="19">
-        <v>5</v>
-      </c>
-      <c r="G50" s="21">
+      <c r="F50" s="16">
+        <v>5</v>
+      </c>
+      <c r="G50" s="18">
         <v>0.85209999999999997</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="19">
         <v>0.88460000000000005</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="19">
         <v>0.86329999999999996</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="16">
         <v>5.21</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="14" t="s">
+      <c r="C52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J52" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="K52" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <v>100</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <v>16</v>
       </c>
-      <c r="F53" s="19">
-        <v>5</v>
-      </c>
-      <c r="G53" s="21">
+      <c r="F53" s="16">
+        <v>5</v>
+      </c>
+      <c r="G53" s="28">
         <v>0.99129999999999996</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="19">
         <v>0.99439999999999995</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="19">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="16">
         <v>1.73</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="14" t="s">
+      <c r="C55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I55" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="28" t="s">
+      <c r="J55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="28" t="s">
+      <c r="K55" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="26">
         <v>100</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="26">
         <v>16</v>
       </c>
-      <c r="F56" s="30">
-        <v>5</v>
-      </c>
-      <c r="G56" s="32">
+      <c r="F56" s="26">
+        <v>5</v>
+      </c>
+      <c r="G56" s="18">
         <v>0.95650000000000002</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H56" s="27">
         <v>0.96379999999999999</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="27">
         <v>0.95879999999999999</v>
       </c>
-      <c r="J56" s="29" t="s">
+      <c r="J56" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="26">
         <v>3.89</v>
       </c>
-      <c r="L56" s="34" t="s">
+      <c r="L56" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I58" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="28" t="s">
+      <c r="J58" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K58" s="28" t="s">
+      <c r="K58" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="26">
         <v>100</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="26">
         <v>16</v>
       </c>
-      <c r="F59" s="30">
-        <v>5</v>
-      </c>
-      <c r="G59" s="35">
+      <c r="F59" s="26">
+        <v>5</v>
+      </c>
+      <c r="G59" s="27">
         <v>0.94779999999999998</v>
       </c>
-      <c r="H59" s="31">
+      <c r="H59" s="27">
         <v>0.96440000000000003</v>
       </c>
-      <c r="I59" s="31">
+      <c r="I59" s="27">
         <v>0.95650000000000002</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="16">
         <v>4.26</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="I61" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K61" s="28" t="s">
+      <c r="K61" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="16">
         <v>100</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="16">
         <v>16</v>
       </c>
-      <c r="F62" s="19">
-        <v>5</v>
-      </c>
-      <c r="G62" s="21">
+      <c r="F62" s="16">
+        <v>5</v>
+      </c>
+      <c r="G62" s="18">
         <v>0.97389999999999999</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="19">
         <v>0.98050000000000004</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="19">
         <v>0.9738</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="16">
         <v>3.06</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="C64" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="I64" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J64" s="28" t="s">
+      <c r="J64" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="28" t="s">
+      <c r="K64" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="16">
         <v>100</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="16">
         <v>16</v>
       </c>
-      <c r="F65" s="19">
-        <v>5</v>
-      </c>
-      <c r="G65" s="21">
+      <c r="F65" s="16">
+        <v>5</v>
+      </c>
+      <c r="G65" s="28">
         <v>0.99129999999999996</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="19">
         <v>0.99329999999999996</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="19">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="16">
         <v>1.73</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="C67" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="16" t="s">
+      <c r="I67" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="28" t="s">
+      <c r="J67" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K67" s="28" t="s">
+      <c r="K67" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="16">
         <v>100</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="16">
         <v>16</v>
       </c>
-      <c r="F68" s="19">
-        <v>5</v>
-      </c>
-      <c r="G68" s="21">
+      <c r="F68" s="16">
+        <v>5</v>
+      </c>
+      <c r="G68" s="18">
         <v>0.89559999999999995</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="19">
         <v>0.92589999999999995</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="19">
         <v>0.91049999999999998</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="16">
         <v>3.47</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="14" t="s">
+      <c r="C70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="I70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K70" s="28" t="s">
+      <c r="K70" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="16">
         <v>100</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="16">
         <v>16</v>
       </c>
-      <c r="F71" s="19">
-        <v>5</v>
-      </c>
-      <c r="G71" s="21">
+      <c r="F71" s="16">
+        <v>5</v>
+      </c>
+      <c r="G71" s="18">
         <v>0.97389999999999999</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="19">
         <v>0.98050000000000004</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="19">
         <v>0.97829999999999995</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="16">
         <v>2.13</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="28" t="s">
+      <c r="J73" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K73" s="28" t="s">
+      <c r="K73" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="16">
         <v>100</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="16">
         <v>16</v>
       </c>
-      <c r="F74" s="19">
-        <v>5</v>
-      </c>
-      <c r="G74" s="21">
+      <c r="F74" s="16">
+        <v>5</v>
+      </c>
+      <c r="G74" s="18">
         <v>0.96519999999999995</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="19">
         <v>0.9738</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="19">
         <v>0.96719999999999995</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="16">
         <v>3.25</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="14" t="s">
+      <c r="C76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="16" t="s">
+      <c r="I76" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="J76" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K76" s="28" t="s">
+      <c r="K76" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="16">
         <v>100</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="17">
         <v>1E-4</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="16">
         <v>16</v>
       </c>
-      <c r="F77" s="19">
-        <v>5</v>
-      </c>
-      <c r="G77" s="21">
+      <c r="F77" s="16">
+        <v>5</v>
+      </c>
+      <c r="G77" s="18">
         <v>0.89559999999999995</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H77" s="19">
         <v>0.91169999999999995</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="19">
         <v>0.91100000000000003</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="16">
         <v>5.21</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="2" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
